--- a/tutorials/activity_browser/exercises/parametric_lca_v0.xlsx
+++ b/tutorials/activity_browser/exercises/parametric_lca_v0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1ECBCB-04C1-4BB4-B5D4-45E724B2DAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F701E9FC-81E9-4686-BE12-470FCD37C804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Process data" sheetId="2" r:id="rId1"/>
@@ -606,24 +606,24 @@
   <dimension ref="A1:P313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2"/>
-    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="2"/>
-    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="2"/>
+    <col min="4" max="4" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="2"/>
+    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="77" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5703125" style="1"/>
-    <col min="17" max="16384" width="12.5703125" style="2"/>
+    <col min="9" max="16" width="12.5546875" style="1"/>
+    <col min="17" max="16384" width="12.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -637,7 +637,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -647,10 +647,10 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f>B4</f>
         <v>EV production</v>
@@ -896,7 +896,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>48</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -968,7 +968,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="str">
         <f>B17</f>
         <v>battery manufacturing</v>
@@ -1214,7 +1214,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>48</v>
       </c>
@@ -1245,10 +1245,10 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>6</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15"/>
@@ -1410,7 +1410,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -1485,7 +1485,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="15"/>
@@ -1502,7 +1502,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="str">
         <f>B29</f>
         <v>driving the EV</v>
@@ -1604,7 +1604,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>27</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>48</v>
       </c>
@@ -1668,10 +1668,10 @@
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>12</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="str">
         <f>B47</f>
         <v>ICEV production</v>
@@ -1917,7 +1917,7 @@
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>48</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>7</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>9</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>11</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="str">
         <f>B59</f>
         <v>diesel supply</v>
@@ -2194,7 +2194,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>48</v>
       </c>
@@ -2225,7 +2225,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>26</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>21</v>
       </c>
@@ -2283,12 +2283,12 @@
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>2</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>3</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>5</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>7</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>9</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>12</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="str">
         <f>B73</f>
         <v>driving the ICEV</v>
@@ -2535,7 +2535,7 @@
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>35</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>37</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>19</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>21</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="N86" s="12"/>
       <c r="O86" s="12"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>50</v>
       </c>
@@ -2689,13 +2689,13 @@
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B90" s="8"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2705,31 +2705,31 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I93" s="18"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="6"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="6"/>
       <c r="D97" s="3"/>
@@ -2737,46 +2737,46 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B99" s="6"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B100" s="6"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B102" s="6"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="3"/>
       <c r="C107"/>
@@ -2784,7 +2784,7 @@
       <c r="G107"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="3"/>
       <c r="D108" s="3"/>
@@ -2792,7 +2792,7 @@
       <c r="G108"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="6"/>
       <c r="C109" s="9"/>
@@ -2800,14 +2800,14 @@
       <c r="G109" s="3"/>
       <c r="I109" s="18"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2817,28 +2817,28 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="6"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="3"/>
       <c r="C125"/>
@@ -2846,7 +2846,7 @@
       <c r="G125"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="3"/>
       <c r="D126" s="3"/>
@@ -2854,91 +2854,91 @@
       <c r="G126"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="D146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="D147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M278" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M287" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M288" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M289" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M292" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M293" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M294" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M295" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M305" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M306" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M307" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M310" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M311" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M312" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M313" s="1" t="s">
         <v>1</v>
       </c>
